--- a/doc/04_外部設計書_CurrentDirectory - 新規登録.xlsx
+++ b/doc/04_外部設計書_CurrentDirectory - 新規登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56D3914-E77C-4775-B980-820DCA24C2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF71167-664E-4CC0-A39F-C4559C2A485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -481,6 +481,17 @@
     </rPh>
     <rPh sb="6" eb="11">
       <t>イチモジイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>半角英数のみ</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクエイスウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1386,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="AD84" sqref="AD84"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="AF81" sqref="AF81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4804,7 +4815,9 @@
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
-      <c r="AD81" s="16"/>
+      <c r="AD81" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="AE81" s="17"/>
       <c r="AF81" s="17"/>
       <c r="AG81" s="17"/>
@@ -4901,7 +4914,9 @@
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>
@@ -4962,9 +4977,13 @@
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
       <c r="S84" s="16"/>
-      <c r="T84" s="19"/>
+      <c r="T84" s="19">
+        <v>1</v>
+      </c>
       <c r="U84" s="16"/>
-      <c r="V84" s="19"/>
+      <c r="V84" s="19">
+        <v>16</v>
+      </c>
       <c r="W84" s="16" t="s">
         <v>58</v>
       </c>
